--- a/Phone_price_data.xlsx
+++ b/Phone_price_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S20 FE 5G (Cloud Mint, 8GB RAM, 128GB Storage)</t>
+          <t>Samsung Galaxy S22 Ultra 5G (Phantom Black, 12GB, 256GB Storage) + Samsung Galaxy Watch4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29,990</t>
+          <t>1,02,998</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M32 Prime Edition (Light Blue, 6GB RAM, 128GB)</t>
+          <t>Samsung Galaxy M32 Prime Edition (Light Blue, 4GB RAM, 64GB)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M32 Prime Edition (Light Blue, 4GB RAM, 64GB)</t>
+          <t>Samsung Galaxy M32 Prime Edition (Light Blue, 6GB RAM, 128GB)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13,499</t>
+          <t>11,499</t>
         </is>
       </c>
     </row>
@@ -597,14 +597,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11,499</t>
+          <t>13,499</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M13 (Aqua Green, 4GB, 64GB Storage) | 6000mAh Battery | Upto 8GB RAM with RAM Plus</t>
+          <t>Samsung Galaxy S20 FE 5G (Cloud Lavender, 8GB RAM, 128GB Storage) with No Cost EMI &amp; Additional Exchange Offers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold3 5G (Phantom Green, 12GB RAM, 256GB Storage) with No Cost EMI/Additional Exchange Offers</t>
+          <t>Samsung Galaxy M13 (Aqua Green, 4GB, 64GB Storage) | 6000mAh Battery | Upto 8GB RAM with RAM Plus</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,12 +640,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M53 5G (Deep Ocean Blue, 8GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
+          <t>Samsung Galaxy M33 5G (Mystique Green, 6GB, 128GB Storage) | 6000mAh Battery | Upto 12GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9,999</t>
+          <t>29,990</t>
         </is>
       </c>
     </row>
@@ -657,14 +657,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1,19,999</t>
+          <t>9,999</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M13 (Midnight Blue, 6GB, 128GB Storage) | 6000mAh Battery | Upto 12GB RAM with RAM Plus</t>
+          <t>Samsung Galaxy A13 Blue, 6GB RAM, 128GB Storage with No Cost EMI/Additional Exchange Offers, (SM-A135FLBJINS)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,19 +676,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M33 5G (Deep Ocean Blue, 8GB, 128GB Storage) | 6000mAh Battery | Upto 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
+          <t>Samsung Galaxy M53 5G (Deep Ocean Blue, 8GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23,999</t>
+          <t>15,499</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M53 5G (Deep Ocean Blue, 6GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 12GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
+          <t>Samsung Galaxy M33 5G (Mystique Green, 8GB, 128GB Storage) | 6000mAh Battery | Upto 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,48 +700,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M53 5G (Mystique Green, 6GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 12GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
+          <t>Samsung Galaxy M13 (Midnight Blue, 6GB, 128GB Storage) | 6000mAh Battery | Upto 12GB RAM with RAM Plus</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11,499</t>
+          <t>15,499</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A13 Blue, 6GB RAM, 128GB Storage with No Cost EMI/Additional Exchange Offers, (SM-A135FLBJINS)</t>
+          <t>Samsung Galaxy M33 5G (Deep Ocean Blue, 8GB, 128GB Storage) | 6000mAh Battery | Upto 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16,999</t>
+          <t>23,999</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M33 5G (Mystique Green, 8GB, 128GB Storage) | 6000mAh Battery | Upto 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
+          <t>Samsung Galaxy M53 5G (Deep Ocean Blue, 6GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 12GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21,999</t>
+          <t>16,999</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A03 Black, 3GB RAM, 32GB Storage Without Offers</t>
+          <t>Samsung Galaxy M53 5G (Mystique Green, 6GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 12GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21,999</t>
+          <t>11,499</t>
         </is>
       </c>
     </row>
@@ -753,31 +753,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15,499</t>
+          <t>16,999</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M53 5G (Mystique Green, 8GB, 128GB Storage) | 108MP | sAmoled+ 120Hz | 16GB RAM with RAM Plus | Travel Adapter to be Purchased Separately</t>
+          <t>Samsung Galaxy M12 (Blue,4GB RAM, 64GB Storage) 6000 mAh with 8nm Processor | True 48 MP Quad Camera | 90Hz Refresh Rate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16,999</t>
+          <t>21,999</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Samsung Galaxy Z Fold3 5G (Phantom Black, 12GB RAM, 512GB Storage) with No Cost EMI/Additional Exchange Offers</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>21,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Samsung Galaxy M32 Prime Edition (Light Blue, 6GB RAM, 128GB)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8,890</t>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11,999</t>
         </is>
       </c>
     </row>
